--- a/kabu_analysis/work/証券コード一覧（東証一部）.xlsx
+++ b/kabu_analysis/work/証券コード一覧（東証一部）.xlsx
@@ -12764,8 +12764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2063"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A469" sqref="A469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
